--- a/Mifos Automation Excels/Client/4559-MS-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-PRODUCTIVE_COLLSHEET_REPAYMOREONTIME09JAN-C1.xlsx
+++ b/Mifos Automation Excels/Client/4559-MS-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-PRODUCTIVE_COLLSHEET_REPAYMOREONTIME09JAN-C1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="82">
   <si>
     <t>submittedon</t>
   </si>
@@ -262,12 +267,18 @@
   </si>
   <si>
     <t>4352-MS-Simple-Group-Loan-Product-Loanproduct</t>
+  </si>
+  <si>
+    <t>selectRepeatevery</t>
+  </si>
+  <si>
+    <t>FRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -297,6 +308,7 @@
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -431,6 +443,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -478,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,9 +526,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -546,6 +578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -722,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -811,31 +860,39 @@
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>3</v>
+        <v>80</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>3</v>
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1026,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1252,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1263,7 +1320,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>37</v>
       </c>
@@ -1303,17 +1360,18 @@
       <c r="M1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="16">
@@ -1340,8 +1398,9 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1379,14 +1438,15 @@
       <c r="M3" s="13">
         <v>0</v>
       </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1422,14 +1482,15 @@
       <c r="M4" s="13">
         <v>154.11000000000001</v>
       </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
         <v>691.78</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1465,14 +1526,15 @@
       <c r="M5" s="13">
         <v>0</v>
       </c>
-      <c r="N5" s="13">
-        <v>0</v>
-      </c>
-      <c r="P5" s="13">
+      <c r="N5" s="13"/>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1508,14 +1570,15 @@
       <c r="M6" s="13">
         <v>0</v>
       </c>
-      <c r="N6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1551,14 +1614,15 @@
       <c r="M7" s="13">
         <v>0</v>
       </c>
-      <c r="N7" s="13">
-        <v>0</v>
-      </c>
-      <c r="P7" s="13">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1594,14 +1658,15 @@
       <c r="M8" s="13">
         <v>0</v>
       </c>
-      <c r="N8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1637,14 +1702,15 @@
       <c r="M9" s="13">
         <v>0</v>
       </c>
-      <c r="N9" s="13">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1680,14 +1746,15 @@
       <c r="M10" s="13">
         <v>0</v>
       </c>
-      <c r="N10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1723,14 +1790,15 @@
       <c r="M11" s="13">
         <v>0</v>
       </c>
-      <c r="N11" s="13">
-        <v>0</v>
-      </c>
-      <c r="P11" s="13">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1766,14 +1834,15 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="N12" s="13"/>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1809,14 +1878,15 @@
       <c r="M13" s="13">
         <v>0</v>
       </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="13">
+      <c r="N13" s="13"/>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
         <v>845.89</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1852,10 +1922,11 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="N14" s="13"/>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
         <v>845.85</v>
       </c>
     </row>
